--- a/src/survey_results.xlsx
+++ b/src/survey_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
   <si>
     <t>Participant ID</t>
   </si>
@@ -40,27 +40,33 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>b08b64fb-1093-43af-a8e1-810d770d79ac</t>
-  </si>
-  <si>
-    <t>2fb1c87b-9894-4e5a-8efd-dc6870ea2a60</t>
-  </si>
-  <si>
-    <t>1f50160c-67fc-4c28-9007-c522a0ff1b71</t>
-  </si>
-  <si>
-    <t>723da10e-bed8-415b-a53b-30f0808d96ff</t>
-  </si>
-  <si>
-    <t>2976af50-3f27-41bf-9217-7c0cb366d4b2</t>
-  </si>
-  <si>
-    <t>ae8fb27f-d3cd-4bae-a974-94e711334974</t>
+    <t>f05dcde0-874e-42b3-9e7d-94864f6cb80e</t>
+  </si>
+  <si>
+    <t>a06f48b3-d64b-4cc9-ac9a-9d10e5b903a3</t>
+  </si>
+  <si>
+    <t>9032cb21-af29-438e-b057-4f69fa3c9787</t>
+  </si>
+  <si>
+    <t>32b67ebf-5d48-4f63-b154-51889bc98c50</t>
+  </si>
+  <si>
+    <t>f4dcef43-90b5-4051-84b9-1348c2eb3d45</t>
+  </si>
+  <si>
+    <t>ffe9b562-7479-485b-a845-aa531bc27793</t>
+  </si>
+  <si>
+    <t>000006</t>
   </si>
   <si>
     <t>000003</t>
   </si>
   <si>
+    <t>000007</t>
+  </si>
+  <si>
     <t>00082be1-4c28-c41f-6147-92d0e12629c8</t>
   </si>
   <si>
@@ -91,6 +97,36 @@
     <t>00957c9d-ceba-6a92-65a3-d5cf0e7d9ec7</t>
   </si>
   <si>
+    <t>0510dc0a-3bb4-2d16-a131-c29318a0ae01</t>
+  </si>
+  <si>
+    <t>05331482-d3ac-ea9d-53d5-0035f882ca19</t>
+  </si>
+  <si>
+    <t>053bbf43-71ef-4c25-05e1-69df8c011cc7</t>
+  </si>
+  <si>
+    <t>0547cd9f-dd49-1f29-131e-05b8bd1c940c</t>
+  </si>
+  <si>
+    <t>054eb693-9c86-f121-4c71-fd9656440a41</t>
+  </si>
+  <si>
+    <t>058df24f-6436-fc9f-18a3-d7718850abc4</t>
+  </si>
+  <si>
+    <t>0597a759-cb95-fb9a-3ccc-7f542d0ef4eb</t>
+  </si>
+  <si>
+    <t>05b0036e-4c5d-10f2-2c54-e44346b871e0</t>
+  </si>
+  <si>
+    <t>05b92eb8-a78a-4214-9abd-931279dc361e</t>
+  </si>
+  <si>
+    <t>05c644be-c4c4-7611-5f95-2ef3f9de6f7f</t>
+  </si>
+  <si>
     <t>06913245-a0c1-e9ab-1e87-1e6999eae007</t>
   </si>
   <si>
@@ -119,6 +155,36 @@
   </si>
   <si>
     <t>07532513-d6ba-a560-5af5-d0f705d8fbb2</t>
+  </si>
+  <si>
+    <t>009af2ec-6cc3-d9fb-ac2a-ea58b901ec1c</t>
+  </si>
+  <si>
+    <t>009ebd1c-91cf-0311-dc01-ef0e3b139886</t>
+  </si>
+  <si>
+    <t>00a2c49d-660c-438f-a1af-2d50441882f0</t>
+  </si>
+  <si>
+    <t>00a3df33-aa57-87a4-fd78-974841bcb1f5</t>
+  </si>
+  <si>
+    <t>00bef514-50ca-408e-93c0-dd60f614879c</t>
+  </si>
+  <si>
+    <t>00e4a298-d825-382c-d4b2-ed77ca1937c1</t>
+  </si>
+  <si>
+    <t>00e8fea5-b11c-fd2f-4e5d-814d64e7c4ff</t>
+  </si>
+  <si>
+    <t>01136384-60a4-4930-bb9a-f59b015b9db1</t>
+  </si>
+  <si>
+    <t>0131f56d-9271-1bb3-9a3b-caecdfbe0a3e</t>
+  </si>
+  <si>
+    <t>016fdf17-615d-4482-8d8a-d329ad50c077</t>
   </si>
 </sst>
 </file>
@@ -519,16 +585,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -545,10 +611,10 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -571,16 +637,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -597,16 +663,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -623,16 +689,16 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -649,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -675,16 +741,16 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -701,16 +767,16 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -727,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -753,16 +819,16 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -779,16 +845,16 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -805,16 +871,16 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -831,16 +897,16 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -857,16 +923,16 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -883,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -909,16 +975,16 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -935,16 +1001,16 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -961,16 +1027,16 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -987,16 +1053,16 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1013,16 +1079,16 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1036,19 +1102,19 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1062,19 +1128,19 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1088,19 +1154,19 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1114,19 +1180,19 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1140,19 +1206,19 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1166,19 +1232,19 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1192,19 +1258,19 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -1218,19 +1284,19 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>7</v>
       </c>
       <c r="G29">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1244,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1270,13 +1336,13 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -1296,19 +1362,19 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -1322,19 +1388,19 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>11</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -1348,19 +1414,19 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>12</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1374,19 +1440,19 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <v>13</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -1400,19 +1466,19 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F36">
         <v>14</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -1426,19 +1492,19 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F37">
         <v>15</v>
       </c>
       <c r="G37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -1452,19 +1518,19 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F38">
         <v>16</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -1478,13 +1544,13 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F39">
         <v>17</v>
@@ -1504,19 +1570,19 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>18</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -1530,19 +1596,19 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>19</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -1556,19 +1622,19 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -1582,19 +1648,19 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -1608,19 +1674,19 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -1634,19 +1700,19 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -1660,19 +1726,19 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1686,19 +1752,19 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1712,19 +1778,19 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -1738,19 +1804,19 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
       <c r="G49">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -1764,19 +1830,19 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -1790,19 +1856,19 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F51">
         <v>9</v>
       </c>
       <c r="G51">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -1816,19 +1882,19 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F52">
         <v>10</v>
       </c>
       <c r="G52">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -1842,19 +1908,19 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
         <v>26</v>
-      </c>
-      <c r="F53">
-        <v>11</v>
-      </c>
-      <c r="G53">
-        <v>40</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -1868,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>12</v>
       </c>
       <c r="G54">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1894,19 +1960,19 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <v>13</v>
       </c>
       <c r="G55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1920,19 +1986,19 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <v>14</v>
       </c>
       <c r="G56">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -1946,13 +2012,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>15</v>
@@ -1972,19 +2038,19 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>16</v>
       </c>
       <c r="G58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -1998,13 +2064,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>17</v>
@@ -2024,13 +2090,13 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <v>18</v>
@@ -2050,13 +2116,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>19</v>

--- a/src/survey_results.xlsx
+++ b/src/survey_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="67">
   <si>
     <t>Participant ID</t>
   </si>
@@ -37,19 +37,40 @@
     <t>Similarity Score</t>
   </si>
   <si>
+    <t>Image Displayed</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>Completion Code</t>
   </si>
   <si>
+    <t>MTurk ID</t>
+  </si>
+  <si>
+    <t>Features Considered</t>
+  </si>
+  <si>
+    <t>Improvement Suggestions</t>
+  </si>
+  <si>
+    <t>7889197b97689d4fc51ab8d69e9e2a8c2641fa7fc23efbfc224002642da6ee15</t>
+  </si>
+  <si>
     <t>575014cfde68e8717cc43eb8adfafd40e0a0a87430449dc27920662aef569a2a</t>
   </si>
   <si>
-    <t>9ec81108-cd4e-4de8-ad92-186c5f97b6fa</t>
-  </si>
-  <si>
-    <t>01</t>
+    <t>4791bbd1-bac4-4bed-a48b-83c92dde7d20</t>
+  </si>
+  <si>
+    <t>f292506d-b8c9-4ab9-8ea3-17d183d10321</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
   <si>
     <t>00082be1-4c28-c41f-6147-92d0e12629c8</t>
@@ -82,67 +103,118 @@
     <t>00957c9d-ceba-6a92-65a3-d5cf0e7d9ec7</t>
   </si>
   <si>
-    <t>009af2ec-6cc3-d9fb-ac2a-ea58b901ec1c</t>
-  </si>
-  <si>
-    <t>009ebd1c-91cf-0311-dc01-ef0e3b139886</t>
-  </si>
-  <si>
-    <t>00a2c49d-660c-438f-a1af-2d50441882f0</t>
-  </si>
-  <si>
-    <t>00a3df33-aa57-87a4-fd78-974841bcb1f5</t>
-  </si>
-  <si>
-    <t>00bef514-50ca-408e-93c0-dd60f614879c</t>
-  </si>
-  <si>
-    <t>00e4a298-d825-382c-d4b2-ed77ca1937c1</t>
-  </si>
-  <si>
-    <t>00e8fea5-b11c-fd2f-4e5d-814d64e7c4ff</t>
-  </si>
-  <si>
-    <t>01136384-60a4-4930-bb9a-f59b015b9db1</t>
-  </si>
-  <si>
-    <t>0131f56d-9271-1bb3-9a3b-caecdfbe0a3e</t>
-  </si>
-  <si>
-    <t>016fdf17-615d-4482-8d8a-d329ad50c077</t>
-  </si>
-  <si>
-    <t>019447f3-134c-8565-5196-ccaf26a3fa7d</t>
-  </si>
-  <si>
-    <t>01a25cbd-d2f8-6be8-8ebb-65cd6dda304e</t>
-  </si>
-  <si>
-    <t>01a5d5b9-012b-3005-bfc4-33ec95961865</t>
-  </si>
-  <si>
-    <t>01c5a9a9-ba0d-4ed0-a689-04ba5d176503</t>
-  </si>
-  <si>
-    <t>01d41b57-49c5-7b97-555e-4477f75b07e5</t>
-  </si>
-  <si>
-    <t>01d9e640-7c2e-425a-b094-51fe5c4618af</t>
-  </si>
-  <si>
-    <t>01df64fa-3510-c057-2a11-707498de5905</t>
-  </si>
-  <si>
-    <t>01f788b9-f504-8887-37da-56104785c90c</t>
-  </si>
-  <si>
-    <t>0213768a-05a0-4fdd-96e9-9ed36fcbd2d6</t>
-  </si>
-  <si>
-    <t>02446933-b6b5-4190-a53f-6a852f6b622d</t>
-  </si>
-  <si>
-    <t>c021ce22db</t>
+    <t>035935c8-429f-dd25-874b-3475d897231f</t>
+  </si>
+  <si>
+    <t>0381d4bf-1ab5-4156-8a69-04eda0f0c9a5</t>
+  </si>
+  <si>
+    <t>03a9b29e-6904-3418-54a5-98db35696ef9</t>
+  </si>
+  <si>
+    <t>03cefe96-8249-40c8-abbc-40860689415a</t>
+  </si>
+  <si>
+    <t>03d19846-2b60-c181-6ed0-4e14a534a85b</t>
+  </si>
+  <si>
+    <t>03d23e7a-c3e8-8994-bffc-46946895e579</t>
+  </si>
+  <si>
+    <t>04174d4e-cd5e-1bd6-83c7-26ceb86c1c03</t>
+  </si>
+  <si>
+    <t>04aca15f-c662-c56d-7d7d-5939d4b79571</t>
+  </si>
+  <si>
+    <t>04cf766e-8cbf-4b92-0bcc-37ea24f60f4c</t>
+  </si>
+  <si>
+    <t>05068e05-77a6-76f8-fcd4-2741dd829822</t>
+  </si>
+  <si>
+    <t>0510dc0a-3bb4-2d16-a131-c29318a0ae01</t>
+  </si>
+  <si>
+    <t>05331482-d3ac-ea9d-53d5-0035f882ca19</t>
+  </si>
+  <si>
+    <t>053bbf43-71ef-4c25-05e1-69df8c011cc7</t>
+  </si>
+  <si>
+    <t>0547cd9f-dd49-1f29-131e-05b8bd1c940c</t>
+  </si>
+  <si>
+    <t>054eb693-9c86-f121-4c71-fd9656440a41</t>
+  </si>
+  <si>
+    <t>058df24f-6436-fc9f-18a3-d7718850abc4</t>
+  </si>
+  <si>
+    <t>0597a759-cb95-fb9a-3ccc-7f542d0ef4eb</t>
+  </si>
+  <si>
+    <t>05b0036e-4c5d-10f2-2c54-e44346b871e0</t>
+  </si>
+  <si>
+    <t>05b92eb8-a78a-4214-9abd-931279dc361e</t>
+  </si>
+  <si>
+    <t>05c644be-c4c4-7611-5f95-2ef3f9de6f7f</t>
+  </si>
+  <si>
+    <t>07585a4e-497b-7497-8fef-ac465872f74f</t>
+  </si>
+  <si>
+    <t>075e679c-7a54-401f-ae27-04cd4c8c913c</t>
+  </si>
+  <si>
+    <t>07645c04-3628-4b7e-c8f2-960fb6a74e10</t>
+  </si>
+  <si>
+    <t>076bd0e1-799b-4f04-ade7-b1aae828eff3</t>
+  </si>
+  <si>
+    <t>077154ae-4c5c-cadf-211f-96ef272d0bd1</t>
+  </si>
+  <si>
+    <t>078b2c4d-2baf-a867-2a29-153f2e4a65aa</t>
+  </si>
+  <si>
+    <t>079207ab-f588-4a01-8e88-c918653c49c8</t>
+  </si>
+  <si>
+    <t>07a0340e-892e-9776-9efb-4c505bb1091e</t>
+  </si>
+  <si>
+    <t>07ad1d2d-21de-bf97-9e3d-9534d62c65c6</t>
+  </si>
+  <si>
+    <t>07bbed44-3e3b-b37c-1c52-7e9cd25e6204</t>
+  </si>
+  <si>
+    <t>9627347c1d</t>
+  </si>
+  <si>
+    <t>23efcd519d</t>
+  </si>
+  <si>
+    <t>awq@a.com</t>
+  </si>
+  <si>
+    <t>aaaa@m.com</t>
+  </si>
+  <si>
+    <t>Facial features,Age,Ethnicity,I am not sure</t>
+  </si>
+  <si>
+    <t>Ethnicity,as</t>
+  </si>
+  <si>
+    <t>WYD</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -500,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,196 +606,280 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
+        <v>91</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>96</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -734,373 +890,529 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="G20">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -1111,298 +1423,1250 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>21</v>
       </c>
       <c r="G23">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
       <c r="G25">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>24</v>
       </c>
       <c r="G26">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>26</v>
       </c>
       <c r="G28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>28</v>
       </c>
       <c r="G30">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31">
+        <v>84</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>86</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
         <v>83</v>
       </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>42</v>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>88</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>92</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>96</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>91</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>89</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>88</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>92</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>91</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>85</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>88</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>76</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>18</v>
+      </c>
+      <c r="G50">
+        <v>69</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>68</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/survey_results.xlsx
+++ b/src/survey_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="56">
   <si>
     <t>Participant ID</t>
   </si>
@@ -55,22 +55,49 @@
     <t>Improvement Suggestions</t>
   </si>
   <si>
+    <t>575014cfde68e8717cc43eb8adfafd40e0a0a87430449dc27920662aef569a2a</t>
+  </si>
+  <si>
     <t>7889197b97689d4fc51ab8d69e9e2a8c2641fa7fc23efbfc224002642da6ee15</t>
   </si>
   <si>
-    <t>575014cfde68e8717cc43eb8adfafd40e0a0a87430449dc27920662aef569a2a</t>
-  </si>
-  <si>
-    <t>4791bbd1-bac4-4bed-a48b-83c92dde7d20</t>
-  </si>
-  <si>
-    <t>f292506d-b8c9-4ab9-8ea3-17d183d10321</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>05</t>
+    <t>adef0b9d-a5e2-46c5-86a3-c2e62d1117ac</t>
+  </si>
+  <si>
+    <t>2187d93d-d474-4ed9-a937-e97b2527f057</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>f36af52e-e0ad-fd96-04b7-75633851093d</t>
+  </si>
+  <si>
+    <t>edd13692-a8c4-450a-b14b-f019b57c34f0</t>
+  </si>
+  <si>
+    <t>e8b4b2f6-e79c-48b2-b491-38233e2ec63b</t>
+  </si>
+  <si>
+    <t>5f8c140d-30fc-4433-92ba-d255ae3511bf</t>
+  </si>
+  <si>
+    <t>692c539d-b293-4a6a-ab83-18ae40448fc7</t>
+  </si>
+  <si>
+    <t>e2bdbe7a-e9f3-54da-8140-49d360738ce8</t>
+  </si>
+  <si>
+    <t>af80921c-5772-4a17-8c62-35747014e264</t>
+  </si>
+  <si>
+    <t>f52ed4d8-54a2-3bb1-e22e-d6a18d666dbe</t>
+  </si>
+  <si>
+    <t>1efe3adb-3db8-c62e-a8ae-6daec6e9a826</t>
+  </si>
+  <si>
+    <t>b975d9ba-4d05-4b50-959b-5365a7b614b1</t>
   </si>
   <si>
     <t>00082be1-4c28-c41f-6147-92d0e12629c8</t>
@@ -103,118 +130,58 @@
     <t>00957c9d-ceba-6a92-65a3-d5cf0e7d9ec7</t>
   </si>
   <si>
-    <t>035935c8-429f-dd25-874b-3475d897231f</t>
-  </si>
-  <si>
-    <t>0381d4bf-1ab5-4156-8a69-04eda0f0c9a5</t>
-  </si>
-  <si>
-    <t>03a9b29e-6904-3418-54a5-98db35696ef9</t>
-  </si>
-  <si>
-    <t>03cefe96-8249-40c8-abbc-40860689415a</t>
-  </si>
-  <si>
-    <t>03d19846-2b60-c181-6ed0-4e14a534a85b</t>
-  </si>
-  <si>
-    <t>03d23e7a-c3e8-8994-bffc-46946895e579</t>
-  </si>
-  <si>
-    <t>04174d4e-cd5e-1bd6-83c7-26ceb86c1c03</t>
-  </si>
-  <si>
-    <t>04aca15f-c662-c56d-7d7d-5939d4b79571</t>
-  </si>
-  <si>
-    <t>04cf766e-8cbf-4b92-0bcc-37ea24f60f4c</t>
-  </si>
-  <si>
-    <t>05068e05-77a6-76f8-fcd4-2741dd829822</t>
-  </si>
-  <si>
-    <t>0510dc0a-3bb4-2d16-a131-c29318a0ae01</t>
-  </si>
-  <si>
-    <t>05331482-d3ac-ea9d-53d5-0035f882ca19</t>
-  </si>
-  <si>
-    <t>053bbf43-71ef-4c25-05e1-69df8c011cc7</t>
-  </si>
-  <si>
-    <t>0547cd9f-dd49-1f29-131e-05b8bd1c940c</t>
-  </si>
-  <si>
-    <t>054eb693-9c86-f121-4c71-fd9656440a41</t>
-  </si>
-  <si>
-    <t>058df24f-6436-fc9f-18a3-d7718850abc4</t>
-  </si>
-  <si>
-    <t>0597a759-cb95-fb9a-3ccc-7f542d0ef4eb</t>
-  </si>
-  <si>
-    <t>05b0036e-4c5d-10f2-2c54-e44346b871e0</t>
-  </si>
-  <si>
-    <t>05b92eb8-a78a-4214-9abd-931279dc361e</t>
-  </si>
-  <si>
-    <t>05c644be-c4c4-7611-5f95-2ef3f9de6f7f</t>
-  </si>
-  <si>
-    <t>07585a4e-497b-7497-8fef-ac465872f74f</t>
-  </si>
-  <si>
-    <t>075e679c-7a54-401f-ae27-04cd4c8c913c</t>
-  </si>
-  <si>
-    <t>07645c04-3628-4b7e-c8f2-960fb6a74e10</t>
-  </si>
-  <si>
-    <t>076bd0e1-799b-4f04-ade7-b1aae828eff3</t>
-  </si>
-  <si>
-    <t>077154ae-4c5c-cadf-211f-96ef272d0bd1</t>
-  </si>
-  <si>
-    <t>078b2c4d-2baf-a867-2a29-153f2e4a65aa</t>
-  </si>
-  <si>
-    <t>079207ab-f588-4a01-8e88-c918653c49c8</t>
-  </si>
-  <si>
-    <t>07a0340e-892e-9776-9efb-4c505bb1091e</t>
-  </si>
-  <si>
-    <t>07ad1d2d-21de-bf97-9e3d-9534d62c65c6</t>
-  </si>
-  <si>
-    <t>07bbed44-3e3b-b37c-1c52-7e9cd25e6204</t>
-  </si>
-  <si>
-    <t>9627347c1d</t>
-  </si>
-  <si>
-    <t>23efcd519d</t>
-  </si>
-  <si>
-    <t>awq@a.com</t>
-  </si>
-  <si>
-    <t>aaaa@m.com</t>
-  </si>
-  <si>
-    <t>Facial features,Age,Ethnicity,I am not sure</t>
-  </si>
-  <si>
-    <t>Ethnicity,as</t>
-  </si>
-  <si>
-    <t>WYD</t>
-  </si>
-  <si>
-    <t>as</t>
+    <t>009af2ec-6cc3-d9fb-ac2a-ea58b901ec1c</t>
+  </si>
+  <si>
+    <t>009ebd1c-91cf-0311-dc01-ef0e3b139886</t>
+  </si>
+  <si>
+    <t>00a2c49d-660c-438f-a1af-2d50441882f0</t>
+  </si>
+  <si>
+    <t>00a3df33-aa57-87a4-fd78-974841bcb1f5</t>
+  </si>
+  <si>
+    <t>00bef514-50ca-408e-93c0-dd60f614879c</t>
+  </si>
+  <si>
+    <t>00e4a298-d825-382c-d4b2-ed77ca1937c1</t>
+  </si>
+  <si>
+    <t>00e8fea5-b11c-fd2f-4e5d-814d64e7c4ff</t>
+  </si>
+  <si>
+    <t>01136384-60a4-4930-bb9a-f59b015b9db1</t>
+  </si>
+  <si>
+    <t>0131f56d-9271-1bb3-9a3b-caecdfbe0a3e</t>
+  </si>
+  <si>
+    <t>016fdf17-615d-4482-8d8a-d329ad50c077</t>
+  </si>
+  <si>
+    <t>881192da63</t>
+  </si>
+  <si>
+    <t>ab5e796683</t>
+  </si>
+  <si>
+    <t>aw@g.com</t>
+  </si>
+  <si>
+    <t>awq@aaa.com</t>
+  </si>
+  <si>
+    <t>Ethnicity,ok</t>
+  </si>
+  <si>
+    <t>Outfit style</t>
+  </si>
+  <si>
+    <t>bfg</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -572,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,16 +597,16 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -648,16 +615,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -671,16 +638,16 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -689,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -712,16 +679,16 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -730,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -753,16 +720,16 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -771,16 +738,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -794,16 +761,16 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -812,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -835,16 +802,16 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -853,16 +820,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -876,16 +843,16 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -894,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -917,16 +884,16 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -935,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -958,16 +925,16 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -976,16 +943,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -999,16 +966,16 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1017,16 +984,16 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1040,16 +1007,16 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1058,16 +1025,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1081,16 +1048,16 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1099,16 +1066,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1122,16 +1089,16 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1140,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1163,16 +1130,16 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1181,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1204,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1222,16 +1189,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1245,16 +1212,16 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1263,16 +1230,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1286,16 +1253,16 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1304,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1327,16 +1294,16 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1345,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1368,16 +1335,16 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="G20">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1386,16 +1353,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1409,16 +1376,16 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1427,16 +1394,16 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1450,16 +1417,16 @@
         <v>17</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1468,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1491,16 +1458,16 @@
         <v>17</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>21</v>
       </c>
       <c r="G23">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1509,16 +1476,16 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1532,16 +1499,16 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1550,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1573,16 +1540,16 @@
         <v>17</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
       <c r="G25">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1591,16 +1558,16 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1614,16 +1581,16 @@
         <v>17</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>24</v>
       </c>
       <c r="G26">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1632,16 +1599,16 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1655,16 +1622,16 @@
         <v>17</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1673,16 +1640,16 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1696,16 +1663,16 @@
         <v>17</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>26</v>
       </c>
       <c r="G28">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -1714,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1737,16 +1704,16 @@
         <v>17</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1755,16 +1722,16 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1778,16 +1745,16 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>28</v>
       </c>
       <c r="G30">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1796,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1819,10 +1786,10 @@
         <v>17</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -1837,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M31" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1857,19 +1824,19 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>18</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -1878,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1898,19 +1865,19 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -1919,16 +1886,16 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1939,19 +1906,19 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1960,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1980,19 +1947,19 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -2001,16 +1968,16 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2021,19 +1988,19 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -2042,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2062,19 +2029,19 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -2083,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2103,19 +2070,19 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -2124,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2144,19 +2111,19 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -2165,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2185,19 +2152,19 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -2206,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2226,19 +2193,19 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2247,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2267,19 +2234,19 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -2288,16 +2255,16 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2308,19 +2275,19 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F43">
         <v>11</v>
       </c>
       <c r="G43">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -2329,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2349,19 +2316,19 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>12</v>
       </c>
       <c r="G44">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -2370,16 +2337,16 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2390,19 +2357,19 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -2411,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M45" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2431,37 +2398,37 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>81</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" t="s">
         <v>53</v>
       </c>
-      <c r="F46">
-        <v>14</v>
-      </c>
-      <c r="G46">
-        <v>88</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" t="s">
-        <v>64</v>
-      </c>
       <c r="M46" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2472,19 +2439,19 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>15</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2493,16 +2460,16 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M47" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2513,37 +2480,37 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>87</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" t="s">
         <v>55</v>
-      </c>
-      <c r="F48">
-        <v>16</v>
-      </c>
-      <c r="G48">
-        <v>76</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" t="s">
-        <v>64</v>
-      </c>
-      <c r="M48" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2554,19 +2521,19 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F49">
         <v>17</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2575,16 +2542,16 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2595,19 +2562,19 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F50">
         <v>18</v>
       </c>
       <c r="G50">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -2616,16 +2583,16 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2636,19 +2603,19 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F51">
         <v>19</v>
       </c>
       <c r="G51">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2657,16 +2624,426 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>89</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>85</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>22</v>
+      </c>
+      <c r="G54">
+        <v>86</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" t="s">
+        <v>53</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>87</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>90</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>89</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>84</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>27</v>
+      </c>
+      <c r="G59">
+        <v>88</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" t="s">
+        <v>51</v>
+      </c>
+      <c r="L59" t="s">
+        <v>53</v>
+      </c>
+      <c r="M59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60">
+        <v>28</v>
+      </c>
+      <c r="G60">
+        <v>85</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" t="s">
+        <v>53</v>
+      </c>
+      <c r="M60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>29</v>
+      </c>
+      <c r="G61">
+        <v>89</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
